--- a/Parameters-Estimation/Salinity_Estimation/0-Dataset/training_test_2016_2019/SALINITY_OBS_WITH_FEATURES.xlsx
+++ b/Parameters-Estimation/Salinity_Estimation/0-Dataset/training_test_2016_2019/SALINITY_OBS_WITH_FEATURES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_CMCC\Progetti\3_Estuarine Box Model\Experiments\Parameters-Estimation\Salinity_Estimation\0-Dataset\training_test_2016_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2870743-4597-40AB-B12F-EE2EE3948E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF016112-BCBD-405F-BFAC-788B1486239C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42195D31-7766-4F0A-802B-0E60C0A5A8E6}"/>
+    <workbookView xWindow="3945" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{42195D31-7766-4F0A-802B-0E60C0A5A8E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Salinity_obs" sheetId="1" r:id="rId1"/>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A0930A-C19C-4274-87FB-FF3AF8BE8D56}">
   <dimension ref="A1:G1643"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A1451" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1451" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
